--- a/data/trans_dic/P41E_2023_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P41E_2023_R-Habitat-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.1398795501725483</v>
+        <v>0.1398795501725484</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.1484584713606271</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1097417773665378</v>
+        <v>0.1096492496433326</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1253928971417956</v>
+        <v>0.1221236921623889</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1238648738538437</v>
+        <v>0.1237468414808501</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.177866743727635</v>
+        <v>0.1723468141912022</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1844966908557932</v>
+        <v>0.1795938712771013</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1659022388946285</v>
+        <v>0.1684157754166553</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.09271641078091485</v>
+        <v>0.09271641078091486</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.1343488387008202</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07230723528867244</v>
+        <v>0.07228624277964801</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1113844345743132</v>
+        <v>0.109748513428432</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09545440259571562</v>
+        <v>0.09644092382680791</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1156744235009053</v>
+        <v>0.117450747609251</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1601573113812109</v>
+        <v>0.1592329272197274</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1295357546407696</v>
+        <v>0.131542205622416</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.05350143099805178</v>
+        <v>0.0535014309980518</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.0345922487447978</v>
+        <v>0.03459224874479781</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.04395512614767853</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0337311909489072</v>
+        <v>0.03371362414624465</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01954817184313901</v>
+        <v>0.02052539692462274</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03161815757286772</v>
+        <v>0.03104107248868178</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08070162698449147</v>
+        <v>0.08435500435882308</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05611328584941599</v>
+        <v>0.05829196705480338</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06158449303204502</v>
+        <v>0.0630412360708498</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.1460201317214941</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1471790878609914</v>
+        <v>0.1471790878609913</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.11907970532242</v>
+        <v>0.1218476914375661</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1207514423637055</v>
+        <v>0.119458082368486</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1284071343917776</v>
+        <v>0.1282897060294786</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1789696994172283</v>
+        <v>0.1799266042843739</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1744409820028285</v>
+        <v>0.173046283979207</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.166371263633258</v>
+        <v>0.1671398692250066</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09930786266499657</v>
+        <v>0.09899777185499622</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1121225238714363</v>
+        <v>0.1103449110749032</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1089973780903134</v>
+        <v>0.1079719806333817</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1268534113145427</v>
+        <v>0.1251152631308332</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1381104799665015</v>
+        <v>0.1385264958297466</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1284883934276689</v>
+        <v>0.1270612610235386</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>40342</v>
+        <v>40308</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>43238</v>
+        <v>42111</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>88246</v>
+        <v>88161</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>65386</v>
+        <v>63357</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>63619</v>
+        <v>61928</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>118194</v>
+        <v>119985</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>40529</v>
+        <v>40517</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>57606</v>
+        <v>56760</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>102870</v>
+        <v>103933</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>64836</v>
+        <v>65832</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>82830</v>
+        <v>82352</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>139598</v>
+        <v>141761</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9033</v>
+        <v>9028</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5337</v>
+        <v>5604</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17100</v>
+        <v>16787</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21611</v>
+        <v>22589</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15321</v>
+        <v>15915</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33306</v>
+        <v>34094</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>55139</v>
+        <v>56420</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>58317</v>
+        <v>57692</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>121471</v>
+        <v>121360</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>82870</v>
+        <v>83313</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>84246</v>
+        <v>83572</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>157385</v>
+        <v>158112</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>164746</v>
+        <v>164231</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>181412</v>
+        <v>178536</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>357175</v>
+        <v>353815</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>210442</v>
+        <v>207558</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>223460</v>
+        <v>224133</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>421046</v>
+        <v>416369</v>
       </c>
     </row>
     <row r="24">
